--- a/RangeCalc.xlsx
+++ b/RangeCalc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankpachauri\Desktop\Desktop\Pyheroku\ShriAshutoshMaharajJi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5797F507-F6F7-46C9-BD3D-FD2BBADDF336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B30410F-3242-4EA4-9058-60CF3FC8FF7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
